--- a/WSC/Test Cases/SLCM/Priority1/WSC SLCM_Scholarships.xlsx
+++ b/WSC/Test Cases/SLCM/Priority1/WSC SLCM_Scholarships.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="123">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Reviewed By</t>
   </si>
   <si>
-    <t>Executed By</t>
-  </si>
-  <si>
     <t>S#</t>
   </si>
   <si>
@@ -53,76 +50,13 @@
     <t>User should be able to login to WSC application.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test URL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :-  https://soulwsc.eduleadonline.com
-</t>
-    </r>
+    <t>url: wscdemo.eduleadonline.com
+SLCM Admin: eduadmin@gmail.com, PW: erp@123
+Trainer: trainer@gmail.com,  PW: erp@123
+Student: student@gmail.com, PW: erp@123</t>
   </si>
   <si>
     <t>Scholarship Company</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>User Id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:- eduadmin@gmail.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:- admin</t>
-    </r>
   </si>
   <si>
     <t>Academic Year</t>
@@ -320,6 +254,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Login as </t>
     </r>
     <r>
@@ -346,6 +287,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The user should have all the following accesses:
 </t>
     </r>
@@ -362,28 +310,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">When user try to login as SLCM admin with all the valid credentials 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sucessfully login should happen and homepage must be visible to the user </t>
-  </si>
-  <si>
-    <t xml:space="preserve">when user try to login as SLCM admin with all the invalid credentials 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the warning message should propt please enter the valid credentials 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when user try to login as SLCM admin but with blank credentials 
-</t>
-  </si>
-  <si>
-    <t>Please enter the mandatory details</t>
-  </si>
-  <si>
     <t>TC2_Scholarship Application</t>
   </si>
   <si>
@@ -399,10 +325,10 @@
 2.Scholarship master records.</t>
   </si>
   <si>
-    <t>wscdemo.eduleadonline.com</t>
-  </si>
-  <si>
     <t>New Scholarship Application, Scholarship Details, Student Details, Eligibility Parameter, Parent's Occupation, Bank Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Results </t>
   </si>
   <si>
     <t>Click on Home &gt; Scholarship Application</t>
@@ -552,20 +478,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Login as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Account Manager</t>
-    </r>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -573,28 +485,6 @@
         <charset val="0"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> and check the access privileges</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The user should have only accesses:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Read</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Login as </t>
     </r>
     <r>
@@ -621,6 +511,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The user should have all the following accesses:
 </t>
     </r>
@@ -634,49 +531,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Select, Read,Write,Create, Submit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Login as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Student(After Submission)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and check the access privileges</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The user should have all the following accesses:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Read, Cancel</t>
     </r>
   </si>
 </sst>
@@ -735,18 +589,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1" tint="0.149998474074526"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1166,17 +1020,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -1215,6 +1058,17 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1467,7 +1321,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1486,9 +1340,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1507,31 +1358,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1543,13 +1400,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1558,118 +1412,91 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2206,725 +2033,649 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" style="30" customWidth="1"/>
-    <col min="2" max="2" width="87.5714285714286" style="30" customWidth="1"/>
-    <col min="3" max="3" width="62.7142857142857" style="30" customWidth="1"/>
-    <col min="4" max="4" width="35.2857142857143" style="30" customWidth="1"/>
-    <col min="5" max="5" width="35.7142857142857" style="30" customWidth="1"/>
-    <col min="6" max="6" width="35" style="30" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="30"/>
+    <col min="1" max="1" width="18.7142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5714285714286" style="1" customWidth="1"/>
+    <col min="3" max="3" width="62.7142857142857" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.4285714285714" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5714285714286" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1428571428571" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="30" customFormat="1" ht="50" customHeight="1" spans="1:6">
-      <c r="A1" s="32" t="s">
+    <row r="1" s="1" customFormat="1" ht="50" customHeight="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" s="30" customFormat="1" spans="1:6">
-      <c r="A2" s="32" t="s">
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:5">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="6" s="30" customFormat="1" spans="1:6">
-      <c r="A6" s="35" t="s">
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="75" spans="1:5">
+      <c r="A6" s="11">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-    </row>
-    <row r="7" s="30" customFormat="1" ht="45" spans="1:6">
-      <c r="A7" s="37">
+      <c r="C6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:5">
+      <c r="A7" s="11">
+        <v>2</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:5">
+      <c r="A8" s="11">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:5">
+      <c r="A9" s="11">
+        <v>4</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:5">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="10"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="3:5">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:5">
+      <c r="A12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:5">
+      <c r="A13" s="15">
         <v>1</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:5">
+      <c r="A14" s="32">
+        <v>2</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:2">
+      <c r="A15" s="32">
+        <v>3</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:2">
+      <c r="A16" s="32">
+        <v>4</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:2">
+      <c r="A17" s="32">
+        <v>5</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:2">
+      <c r="A18" s="32">
+        <v>6</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:2">
+      <c r="A19" s="32">
+        <v>7</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A22" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:6">
+      <c r="A23" s="34">
+        <v>1</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:6">
+      <c r="A24" s="36">
+        <v>2</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:6">
+      <c r="A25" s="38">
+        <v>3</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:6">
+      <c r="A26" s="39"/>
+      <c r="B26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:6">
+      <c r="A27" s="38">
+        <v>4</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A28" s="39"/>
+      <c r="B28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A29" s="38">
+        <v>5</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A30" s="39"/>
+      <c r="B30" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:6">
+      <c r="A31" s="39">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A32" s="38">
+        <v>7</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:6">
+      <c r="A33" s="41"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="45"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:6">
+      <c r="A34" s="41"/>
+      <c r="B34" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:6">
+      <c r="A35" s="41"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A36" s="41">
+        <v>7</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:6">
+      <c r="A37" s="51">
+        <v>8</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="19"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:6">
+      <c r="A38" s="52">
+        <v>9</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="19"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:6">
+      <c r="A39" s="52">
+        <v>10</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="19"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:6">
+      <c r="A40" s="52">
         <v>11</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="38" t="s">
+      <c r="B40" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="19"/>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A41" s="53">
         <v>12</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-    </row>
-    <row r="8" s="30" customFormat="1" ht="31" customHeight="1" spans="1:6">
-      <c r="A8" s="37">
-        <v>2</v>
-      </c>
-      <c r="B8" s="39" t="s">
+      <c r="B41" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="19"/>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A42" s="53">
         <v>13</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="40" t="s">
+      <c r="B42" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="19"/>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A43" s="54"/>
+      <c r="B43" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="23"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="19"/>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A44" s="53">
         <v>14</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-    </row>
-    <row r="9" s="30" customFormat="1" ht="23" customHeight="1" spans="1:6">
-      <c r="A9" s="37">
-        <v>3</v>
-      </c>
-      <c r="B9" s="33" t="s">
+      <c r="B44" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="23"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="19"/>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A45" s="54"/>
+      <c r="B45" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="23"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="19"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:6">
+      <c r="A46" s="53">
         <v>15</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-    </row>
-    <row r="10" s="30" customFormat="1" spans="1:6">
-      <c r="A10" s="37">
-        <v>4</v>
-      </c>
-      <c r="B10" s="41" t="s">
+      <c r="B46" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="23"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="19"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:6">
+      <c r="A47" s="52"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="45"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:6">
+      <c r="A48" s="52"/>
+      <c r="B48" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:6">
+      <c r="A49" s="52"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="50"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:6">
+      <c r="A50" s="52">
         <v>16</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-    </row>
-    <row r="11" s="30" customFormat="1" spans="1:6">
-      <c r="A11" s="42"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-    </row>
-    <row r="12" s="30" customFormat="1" spans="3:6">
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-    </row>
-    <row r="13" s="30" customFormat="1" spans="1:6">
-      <c r="A13" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="35" t="s">
+      <c r="B50" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="19"/>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A51" s="52">
         <v>17</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-    </row>
-    <row r="14" s="30" customFormat="1" spans="1:6">
-      <c r="A14" s="44">
-        <v>1</v>
-      </c>
-      <c r="B14" s="45" t="s">
+      <c r="B51" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="19"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:6">
+      <c r="A52" s="52">
         <v>18</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-    </row>
-    <row r="15" s="30" customFormat="1" spans="1:6">
-      <c r="A15" s="46">
-        <v>2</v>
-      </c>
-      <c r="B15" s="47" t="s">
+      <c r="B52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="23"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="19"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:6">
+      <c r="A53" s="52"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="19"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="2:6">
+      <c r="B54" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A55" s="58">
         <v>19</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-    </row>
-    <row r="16" s="30" customFormat="1" spans="1:2">
-      <c r="A16" s="46">
-        <v>3</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" s="30" customFormat="1" spans="1:2">
-      <c r="A17" s="46">
-        <v>4</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" s="30" customFormat="1" spans="1:2">
-      <c r="A18" s="46">
-        <v>5</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" s="30" customFormat="1" spans="1:2">
-      <c r="A19" s="46">
-        <v>6</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" s="30" customFormat="1" spans="1:2">
-      <c r="A20" s="46">
-        <v>7</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" s="31" customFormat="1" spans="1:2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-    </row>
-    <row r="22" s="30" customFormat="1" spans="6:6">
-      <c r="F22" s="36"/>
-    </row>
-    <row r="23" s="30" customFormat="1" spans="1:6">
-      <c r="A23" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" s="30" customFormat="1" spans="1:6">
-      <c r="A24" s="50">
-        <v>1</v>
-      </c>
-      <c r="B24" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-    </row>
-    <row r="25" s="30" customFormat="1" spans="1:6">
-      <c r="A25" s="55">
-        <v>2</v>
-      </c>
-      <c r="B25" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-    </row>
-    <row r="26" s="30" customFormat="1" spans="1:6">
-      <c r="A26" s="57">
-        <v>3</v>
-      </c>
-      <c r="B26" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-    </row>
-    <row r="27" s="30" customFormat="1" ht="35.25" customHeight="1" spans="1:6">
-      <c r="A27" s="59"/>
-      <c r="B27" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-    </row>
-    <row r="28" s="30" customFormat="1" spans="1:6">
-      <c r="A28" s="60">
-        <v>4</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-    </row>
-    <row r="29" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A29" s="61"/>
-      <c r="B29" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-    </row>
-    <row r="30" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A30" s="60">
-        <v>5</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-    </row>
-    <row r="31" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A31" s="61"/>
-      <c r="B31" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-    </row>
-    <row r="32" s="30" customFormat="1" spans="1:6">
-      <c r="A32" s="61">
-        <v>6</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-    </row>
-    <row r="33" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A33" s="60">
-        <v>7</v>
-      </c>
-      <c r="B33" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-    </row>
-    <row r="34" s="30" customFormat="1" spans="1:6">
-      <c r="A34" s="63"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-    </row>
-    <row r="35" s="30" customFormat="1" spans="1:6">
-      <c r="A35" s="63"/>
-      <c r="B35" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-    </row>
-    <row r="36" s="30" customFormat="1" spans="1:6">
-      <c r="A36" s="63"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-    </row>
-    <row r="37" s="30" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A37" s="63">
-        <v>7</v>
-      </c>
-      <c r="B37" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-    </row>
-    <row r="38" s="30" customFormat="1" spans="1:6">
-      <c r="A38" s="65">
-        <v>8</v>
-      </c>
-      <c r="B38" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-    </row>
-    <row r="39" s="30" customFormat="1" spans="1:6">
-      <c r="A39" s="66">
-        <v>9</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-    </row>
-    <row r="40" s="30" customFormat="1" spans="1:6">
-      <c r="A40" s="66">
-        <v>10</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-    </row>
-    <row r="41" s="30" customFormat="1" spans="1:6">
-      <c r="A41" s="66">
-        <v>11</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-    </row>
-    <row r="42" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A42" s="67">
-        <v>12</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-    </row>
-    <row r="43" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A43" s="67">
-        <v>13</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-    </row>
-    <row r="44" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A44" s="68"/>
-      <c r="B44" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-    </row>
-    <row r="45" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A45" s="67">
-        <v>14</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-    </row>
-    <row r="46" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A46" s="68"/>
-      <c r="B46" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="33"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-    </row>
-    <row r="47" s="30" customFormat="1" spans="1:6">
-      <c r="A47" s="67">
-        <v>15</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" s="33"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-    </row>
-    <row r="48" s="30" customFormat="1" spans="1:6">
-      <c r="A48" s="66"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-    </row>
-    <row r="49" s="30" customFormat="1" spans="1:6">
-      <c r="A49" s="66"/>
-      <c r="B49" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-    </row>
-    <row r="50" s="30" customFormat="1" spans="1:6">
-      <c r="A50" s="66"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-    </row>
-    <row r="51" s="30" customFormat="1" spans="1:6">
-      <c r="A51" s="66">
-        <v>16</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-    </row>
-    <row r="52" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A52" s="66">
-        <v>17</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="33"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-    </row>
-    <row r="53" s="30" customFormat="1" spans="1:6">
-      <c r="A53" s="66">
-        <v>18</v>
-      </c>
-      <c r="B53" s="30" t="s">
+      <c r="B55" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-    </row>
-    <row r="54" s="30" customFormat="1" spans="1:6">
-      <c r="A54" s="66"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-    </row>
-    <row r="55" s="30" customFormat="1" spans="1:5">
-      <c r="A55" s="70" t="s">
+      <c r="C55" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="71"/>
-    </row>
-    <row r="56" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A56" s="72">
-        <v>19</v>
-      </c>
-      <c r="B56" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="73"/>
-    </row>
-    <row r="57" s="30" customFormat="1" spans="1:5">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-    </row>
-    <row r="58" s="30" customFormat="1" spans="1:5">
-      <c r="A58" s="31"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-    </row>
-    <row r="59" s="30" customFormat="1" spans="1:5">
-      <c r="A59" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B59" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C59" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="E59" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" s="30" customFormat="1" ht="30" spans="1:5">
-      <c r="A60" s="74">
-        <v>20</v>
-      </c>
-      <c r="B60" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60" s="76" t="s">
-        <v>76</v>
-      </c>
-      <c r="D60" s="76"/>
-      <c r="E60" s="77"/>
-    </row>
-    <row r="61" s="30" customFormat="1" ht="30" spans="1:5">
-      <c r="A61" s="78"/>
-      <c r="B61" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D61" s="79"/>
-      <c r="E61" s="48"/>
-    </row>
-    <row r="62" s="30" customFormat="1" ht="30" spans="1:5">
-      <c r="A62" s="78"/>
-      <c r="B62" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="D62" s="79"/>
-      <c r="E62" s="48"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="1:5">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:5">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A60:A62"/>
+  <mergeCells count="9">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2934,497 +2685,490 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.7142857142857" style="1" customWidth="1"/>
-    <col min="3" max="3" width="66.5714285714286" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.4285714285714" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.7142857142857" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.2857142857143" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="11.4285714285714" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.1428571428571" style="1" customWidth="1"/>
+    <col min="3" max="3" width="59.7142857142857" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.8571428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.2857142857143" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.2857142857143" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="114" customHeight="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="114" customHeight="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="D1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:6">
-      <c r="A5" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A5" s="11"/>
+      <c r="B5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:8">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:8">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:8">
+      <c r="A8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="45" spans="1:8">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="6:8">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:7">
+      <c r="A13" s="18">
+        <v>1</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:7">
+      <c r="A14" s="18">
+        <v>2</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="30" spans="1:7">
+      <c r="A15" s="18">
+        <v>3</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="45" spans="1:7">
+      <c r="A16" s="18">
+        <v>4</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:7">
+      <c r="A17" s="18">
+        <v>5</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="60" spans="1:6">
+      <c r="A18" s="18">
+        <v>6</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="24"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="60" spans="1:6">
+      <c r="A19" s="18">
+        <v>7</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="24"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="60" spans="1:6">
+      <c r="A20" s="18">
+        <v>8</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="24"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A21" s="18">
+        <v>9</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="24"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="135" spans="1:6">
+      <c r="A22" s="18">
         <v>10</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A6" s="12"/>
-      <c r="B6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:6">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="3:6">
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:6">
-      <c r="A9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="B22" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="24"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="75" spans="1:6">
+      <c r="A23" s="18">
+        <v>11</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="24"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A24" s="18">
+        <v>12</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="24"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A25" s="18">
+        <v>13</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="24"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A26" s="18">
+        <v>14</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="24"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A27" s="18">
+        <v>15</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="24"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A28" s="18">
+        <v>16</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="24"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A29" s="18">
         <v>17</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="6:6">
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:6">
-      <c r="A13" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="1:7">
-      <c r="A14" s="19">
-        <v>1</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="21" t="s">
+      <c r="B29" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="24"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A30" s="18">
+        <v>18</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="24"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A31" s="18">
+        <v>19</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="24"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A32" s="18">
+        <v>20</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="1:7">
-      <c r="A15" s="19">
-        <v>2</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="30" spans="1:7">
-      <c r="A16" s="19">
-        <v>3</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="30" spans="1:7">
-      <c r="A17" s="19">
-        <v>4</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="1:7">
-      <c r="A18" s="19">
-        <v>5</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="60" spans="1:6">
-      <c r="A19" s="19">
-        <v>6</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A20" s="19">
-        <v>7</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="60" spans="1:6">
-      <c r="A21" s="19">
-        <v>8</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A22" s="19">
-        <v>9</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="135" spans="1:6">
-      <c r="A23" s="19">
-        <v>10</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="60" spans="1:6">
-      <c r="A24" s="19">
-        <v>11</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A25" s="19">
-        <v>12</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A26" s="19">
-        <v>13</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A27" s="19">
-        <v>14</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A28" s="19">
-        <v>15</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A29" s="19">
-        <v>16</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="22" t="s">
+      <c r="D32" s="23"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="24"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:5">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:5">
+      <c r="A34" s="25"/>
+      <c r="B34" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A30" s="19">
-        <v>17</v>
-      </c>
-      <c r="B30" s="22" t="s">
+      <c r="C34" s="26"/>
+      <c r="D34" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="E34" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:6">
-      <c r="A31" s="19">
-        <v>18</v>
-      </c>
-      <c r="B31" s="22" t="s">
+    </row>
+    <row r="35" s="2" customFormat="1" ht="30" spans="1:5">
+      <c r="A35" s="25"/>
+      <c r="B35" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="E35" s="21"/>
+    </row>
+    <row r="36" ht="30" spans="2:5">
+      <c r="B36" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C36" s="29" t="s">
         <v>122</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A32" s="19">
-        <v>19</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:6">
-      <c r="A33" s="19">
-        <v>20</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="1:5">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" s="2" customFormat="1" spans="1:5">
-      <c r="A35" s="24"/>
-      <c r="B35" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="30" spans="1:5">
-      <c r="A36" s="24"/>
-      <c r="B36" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>74</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="21"/>
     </row>
-    <row r="37" ht="30" spans="2:5">
-      <c r="B37" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="21"/>
-    </row>
-    <row r="38" ht="30" spans="2:5">
-      <c r="B38" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="21"/>
-    </row>
-    <row r="39" ht="30" spans="2:5">
-      <c r="B39" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="21"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
